--- a/medicine/Mort/Death_Note/Death_Note.xlsx
+++ b/medicine/Mort/Death_Note/Death_Note.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Death Note (デスノート, Desu Nōto?, littéralement Cahier de la Mort) est une série de mangas japonais écrits par Tsugumi Ōba et dessinés par Takeshi Obata. Ils sont prépubliés dans le magazine Weekly Shōnen Jump de décembre 2003 à mai 2006, et par la suite publiés en douze tankōbon, de mai 2004 à octobre 2006, par Shūeisha. La version française est éditée par Kana de janvier 2007 jusqu'à octobre 2008.
 Une adaptation en anime de 37 épisodes est réalisée par Tetsurō Araki au sein du studio Madhouse et diffusée du 3 octobre 2006 au 26 juin 2007 sur Nippon Television au Japon. En France, l'anime est diffusé à partir du 2 février 2008 sur MCM, à partir de décembre 2008 sur Virgin 17 et depuis janvier 2022 sur Game One. Death Note est également adapté en trois films live, sortis au Japon entre 2006 et 2008, puis directement en DVD en France par Kazé. Une adaptation en drama est également diffusée en 2015 sur Nippon TV au Japon et en simulcast sur Crunchyroll dans les pays francophones. Il a été repris dans un film du même nom sorti sur Netflix en 2017.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Light Yagami est un lycéen surdoué qui juge le monde actuel criminel, pourri et corrompu. Sa vie change du tout au tout le jour où il ramasse par hasard un mystérieux cahier intitulé « Death Note ». Son mode d'emploi indique que « la personne dont le nom est écrit dans ce cahier meurt ». D'abord sceptique, Light décide toutefois de tester le cahier et découvre que son pouvoir est bien réel. Il rencontre l'ancien propriétaire du Death Note, un dieu de la mort nommé Ryûk. Celui-ci déclare avoir volontairement laissé tomber son carnet dans le but de se divertir.
 Light décide d'utiliser le Death Note pour exterminer les criminels, dans le but de bâtir un monde parfait dont il sera le dieu. Il apprend peu à peu à se servir des pouvoirs du cahier et de ses règles : l'utilisateur ne peut tuer une personne que s'il connait son visage, en y inscrivant son prénom et son nom de famille. Il peut également en préciser la cause et les circonstances détaillées, la cause par défaut étant la crise cardiaque.
@@ -546,7 +560,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cosplay des personnages de Light Yagami, L, Ryuk et Misa Amane.
 Light Yagami (夜神 月, Yagami Raito?)
@@ -602,17 +618,11 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Death Note présente plusieurs niveaux de lecture ; aussi des thèmes politiques et philosophiques sont-ils identifiés et abordés par les commentateurs, à défaut d'avoir été volontairement lancés par l'auteur, Tsugumi Oba, qui estime qu'il n'y a aucun message, aucune idéologie dans ce manga qui se résume donc, à ses yeux, à un combat stratégique et psychologique entre Light et ses adversaires[1] :
-La peine de mort et la justice
-Ces problématiques sont abordées avec les meurtres d'un Light auto-proclamé juge de l'humanité par la grâce du Death Note, mais aussi via l'attitude de ses poursuivants, qui n'hésitent pas à bafouer les droits de l'homme pour parvenir à identifier Kira[2]. Chacun des protagonistes, finalement, lutte pour sa conception de la justice en agissant à l'opposé de l'idéal défendu, ce qui, somme toute, transcende les clivages et appelle à un rejet du manichéisme en la matière. Tsugumi Oba déclare ainsi que Near, à la fin du manga, « invite chacun de nous à se joindre à sa réflexion [sur la justice] » lorsqu'il se livre à la critique des agissements de Kira[3]. Death Note laisse alors aux spectateurs la question « Qu’est-ce que la justice ? »
-Le Bien et le Mal
-Light est persuadé d'agir au nom du Bien puisqu'il vise à devenir le dieu d'un monde idéal car expurgé de toute criminalité. Mais, dans le même temps, la méthode utilisée pour parvenir à cette utopie est le meurtre en série, et l'assassinat des innocents qui osent se dresser sur son chemin… Un paradoxe qui peut, là aussi, s'interpréter comme une volonté de relativiser ces deux notions antinomiques[4]. Le scénariste, Tsugumi Oba, est plus absolu : tout en se défendant d'avoir voulu véhiculer la moindre idéologie ou message philosophique, il précise qu'à titre personnel, il voit en Light « le mal absolu », et ajoute que « L n'est pas forcément mieux »[3]. Au-delà, la question de la corruption de la nature humaine par le pouvoir est abordée : Light, qui ne voyait au départ en le Death Note qu'un moyen de bâtir son monde utopique, a progressivement glissé vers l'obsession de devenir un dieu, au point, à la fin du manga, de sombrer dans la folie[2].
-La dissimulation
-L'un des enjeux pour les personnages est de cacher à tout prix leur identité et/ou leur apparence : Light pour ne pas être démasqué et arrêté, les autres pour ne pas se révéler à Kira[5].
-La religion
-Elle est aussi abordée car Light estime être le dieu de son nouveau monde. De plus, dans la version animée, L nettoie les pieds de Light peu avant qu'il ne meure à cause du stratagème impliquant Misa et la participation de Rem. Light serait donc le « Juda » de L. Sans parler de la passion de Ryuk pour les pommes, le fruit défendu. Ainsi que dans l'émission de Sakura TV, le temple de Kira, Demegawa a fait construire un temple dédié à Kira, la seule différence par rapport à la Bible est que Demegawa prend cette initiative tout seul. Dans l'anime, le premier générique d'ouverture montre une reprise de la sculpture La Pietà de Michel-Ange, la Vierge Marie remplacée par le personnage Naomi Misora et Jésus par Raye Penber. Certaines musiques font aussi référence à la religion : l'anime débute par un Kyrie Eleison, prière et chant religieux traditionnel, ou encore le thème de l'anime reprenant les airs de Carmina Burana : O Fortuna, elle-même fondée sur un recueil de poèmes religieux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Death Note présente plusieurs niveaux de lecture ; aussi des thèmes politiques et philosophiques sont-ils identifiés et abordés par les commentateurs, à défaut d'avoir été volontairement lancés par l'auteur, Tsugumi Oba, qui estime qu'il n'y a aucun message, aucune idéologie dans ce manga qui se résume donc, à ses yeux, à un combat stratégique et psychologique entre Light et ses adversaires :
 </t>
         </is>
       </c>
@@ -638,13 +648,166 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La peine de mort et la justice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces problématiques sont abordées avec les meurtres d'un Light auto-proclamé juge de l'humanité par la grâce du Death Note, mais aussi via l'attitude de ses poursuivants, qui n'hésitent pas à bafouer les droits de l'homme pour parvenir à identifier Kira. Chacun des protagonistes, finalement, lutte pour sa conception de la justice en agissant à l'opposé de l'idéal défendu, ce qui, somme toute, transcende les clivages et appelle à un rejet du manichéisme en la matière. Tsugumi Oba déclare ainsi que Near, à la fin du manga, « invite chacun de nous à se joindre à sa réflexion [sur la justice] » lorsqu'il se livre à la critique des agissements de Kira. Death Note laisse alors aux spectateurs la question « Qu’est-ce que la justice ? »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Bien et le Mal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Light est persuadé d'agir au nom du Bien puisqu'il vise à devenir le dieu d'un monde idéal car expurgé de toute criminalité. Mais, dans le même temps, la méthode utilisée pour parvenir à cette utopie est le meurtre en série, et l'assassinat des innocents qui osent se dresser sur son chemin… Un paradoxe qui peut, là aussi, s'interpréter comme une volonté de relativiser ces deux notions antinomiques. Le scénariste, Tsugumi Oba, est plus absolu : tout en se défendant d'avoir voulu véhiculer la moindre idéologie ou message philosophique, il précise qu'à titre personnel, il voit en Light « le mal absolu », et ajoute que « L n'est pas forcément mieux ». Au-delà, la question de la corruption de la nature humaine par le pouvoir est abordée : Light, qui ne voyait au départ en le Death Note qu'un moyen de bâtir son monde utopique, a progressivement glissé vers l'obsession de devenir un dieu, au point, à la fin du manga, de sombrer dans la folie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La dissimulation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'un des enjeux pour les personnages est de cacher à tout prix leur identité et/ou leur apparence : Light pour ne pas être démasqué et arrêté, les autres pour ne pas se révéler à Kira.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La religion</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est aussi abordée car Light estime être le dieu de son nouveau monde. De plus, dans la version animée, L nettoie les pieds de Light peu avant qu'il ne meure à cause du stratagème impliquant Misa et la participation de Rem. Light serait donc le « Juda » de L. Sans parler de la passion de Ryuk pour les pommes, le fruit défendu. Ainsi que dans l'émission de Sakura TV, le temple de Kira, Demegawa a fait construire un temple dédié à Kira, la seule différence par rapport à la Bible est que Demegawa prend cette initiative tout seul. Dans l'anime, le premier générique d'ouverture montre une reprise de la sculpture La Pietà de Michel-Ange, la Vierge Marie remplacée par le personnage Naomi Misora et Jésus par Raye Penber. Certaines musiques font aussi référence à la religion : l'anime débute par un Kyrie Eleison, prière et chant religieux traditionnel, ou encore le thème de l'anime reprenant les airs de Carmina Burana : O Fortuna, elle-même fondée sur un recueil de poèmes religieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Manga</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fiche technique
-Édition japonaise : Shūeisha
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Édition japonaise : Shūeisha
 Nombre de volumes sortis : 13 (l'histoire tient en 12 volumes, le treizième décrit les caractères des personnages et fournit d'autres informations sur l'histoire)
 Date de première publication : mai 2004 à octobre 2006
 Prépublication : Weekly Shōnen Jump, décembre 2003 à mai 2006 (108 chapitres)
@@ -664,44 +827,121 @@
  Glénat
  Japonica Polonica Fantastica (pl)
  JBC
- Nation Edutainment
-Liste des volumes
-Une édition collector du manga appelée "Black Edition" et regroupée en 6 volumes épais est commercialisée à partir du 28 décembre 2010. En France, cette édition collector sort aux éditions Kana.
-Développement
-L'écriture de Death Note s'est déroulée de manière similaire pour les différents chapitres. Tsugumi Ōba écrit dans un premier temps le scénario, puis l'envoie à Takeshi Obata. Ce dernier le lit et détermine le découpage des cases. Obata dessine ensuite lui-même tout ce qui concerne les personnages et l'univers visuel. Ses assistants appliquent enfin ses consignes et réalisent les bâtiments ou les décors[6].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Death_Note</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+ Nation Edutainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une édition collector du manga appelée "Black Edition" et regroupée en 6 volumes épais est commercialisée à partir du 28 décembre 2010. En France, cette édition collector sort aux éditions Kana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écriture de Death Note s'est déroulée de manière similaire pour les différents chapitres. Tsugumi Ōba écrit dans un premier temps le scénario, puis l'envoie à Takeshi Obata. Ce dernier le lit et détermine le découpage des cases. Obata dessine ensuite lui-même tout ce qui concerne les personnages et l'univers visuel. Ses assistants appliquent enfin ses consignes et réalisent les bâtiments ou les décors.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anime
-Série télévisée
-Fiche technique
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Anime</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série télévisée</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fiche technique
 Réalisation : Tetsurō Araki
 Character design : Masaru Kitao (en)
 Créateurs originaux : Takeshi Obata (dessins), Tsugumi Ōba (scénario)
@@ -715,10 +955,10 @@
  Japon : 3 octobre 2006 au 26 juin 2007
  France : 2 février 2008 sur MCM
 Version française réalisée par :
-Société de doublage : Nice Fellow[7]
-Direction artistique : Bruno Dubernat[7]
-Adaptation des dialogues : Alain Leguillon, Aziza Hellal et Laurent Gourdon[7]
-Enregistrement et mixage : Studio Belleville[7]
+Société de doublage : Nice Fellow
+Direction artistique : Bruno Dubernat
+Adaptation des dialogues : Alain Leguillon, Aziza Hellal et Laurent Gourdon
+Enregistrement et mixage : Studio Belleville
 Épisodes
 Musiques
 La musique de l'anime a été créée par les compositeurs Taniuchi Hideki et Yoshihisa Hirano (en). Trois Original SoundTrack sont sortis, avec notamment les thèmes musicaux des personnages principaux. La variété de ces musiques va des chants grégoriens (dont certains en latin) aux airs métal saturés.
@@ -738,134 +978,532 @@
  Animax
  MBC Action, Space Power TV
 Films
-Death Note RoadShow Rewrite: Vision of God d'une durée de deux heures a vu le jour en 2007 au Japon et est sorti dans des petites salles en France puis en DVD sous le nom de Death Note Relight : La vision d'un Dieu le 6 avril 2009[8].
-Death Note RoadShow Rewrite 2: L wo Tsugu Mono d'une durée d'une heure et trente minutes a vu le jour en 2008 au Japon et est sorti dans des petites salles en France puis en DVD sous le nom de Death Note Relight 2 : La relève de L le 7 octobre 2009[9].
+Death Note RoadShow Rewrite: Vision of God d'une durée de deux heures a vu le jour en 2007 au Japon et est sorti dans des petites salles en France puis en DVD sous le nom de Death Note Relight : La vision d'un Dieu le 6 avril 2009.
+Death Note RoadShow Rewrite 2: L wo Tsugu Mono d'une durée d'une heure et trente minutes a vu le jour en 2008 au Japon et est sorti dans des petites salles en France puis en DVD sous le nom de Death Note Relight 2 : La relève de L le 7 octobre 2009.
 DVD
 Quatre coffrets DVD collectors contenant une figurine sont sortis pour la série animée :
-Le premier composé de 11 épisodes le 9 avril 2008[10] ;
-Le deuxième composé de 13 épisodes le 9 juillet 2008[11] ;
-Le troisième composé de 13 épisodes le 1er octobre 2008[12].
-Un coffret regroupant l'intégrale des épisodes est sorti le 28 novembre 2008[13].
-Des coffrets slim sont ensuite sortis le 3 mars 2010[14],[15],[16].
-Un coffret intégrale regroupant les 37 épisodes est également sorti le 5 octobre 2011[17].
+Le premier composé de 11 épisodes le 9 avril 2008 ;
+Le deuxième composé de 13 épisodes le 9 juillet 2008 ;
+Le troisième composé de 13 épisodes le 1er octobre 2008.
+Un coffret regroupant l'intégrale des épisodes est sorti le 28 novembre 2008.
+Des coffrets slim sont ensuite sortis le 3 mars 2010.
+Un coffret intégrale regroupant les 37 épisodes est également sorti le 5 octobre 2011.
 Puis, deux DVD simples sont sortis pour les films d'animations :
-Death Note Relight : La vision d'un Dieu est sorti le 6 avril 2009[8] ;
-Death Note Relight 2 : La Relève est sorti le 7 octobre 2009[9].
+Death Note Relight : La vision d'un Dieu est sorti le 6 avril 2009 ;
+Death Note Relight 2 : La Relève est sorti le 7 octobre 2009.
 Doublage
 Personnages principaux
 La police japonaise
 Les Dieux de la Mort
 Le groupe Yotsuba
-Autres personnages
-Live-action
-Films
-Le manga a été adapté au cinéma, sous la forme de quatre films en prises de vue réelles :
+Autres personnages</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Live-action</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le manga a été adapté au cinéma, sous la forme de quatre films en prises de vue réelles :
 Death Note, sorti au Japon le 17 juin 2006 et réalisé par Shūsuke Kaneko ;
 Death Note 2: The Last Name, sorti au Japon le 3 novembre 2006 et réalisé par Shūsuke Kaneko ;
 L: Change the World, sorti au Japon le 9 février 2008 et réalisé par Hideo Nakata, basé sur la vie d'un des personnages principaux ;
-En 2015, après la diffusion du drama, un préquel de 3 courts épisodes « Death note: New Génération » sort a l’occasion d'un nouveau film, ce quatrième film intitulé Death Note: Light Up the New World. Réalisé par Shinsuke Sato, celui-ci est sorti le 29 octobre 2016. Il s'agit d'une « suite interdite » des deux films de 2006 réalisés par Shūsuke Kaneko[18], puisqu'elle ne réfère a aucune adaptation du manga.
-Une adaptation américaine, Death Note, par la Warner Bros.[19], est longtemps restée au point mort en raison de désaccords sur le scénario. Shane Black a assuré qu'il réaliserait le film après Iron Man 3, sorti en 2013[20], mais en juillet 2014, Gus Van Sant est également pressenti[21]. Finalement, Adam Wingard est choisi pour réaliser l'adaptation, qui est diffusée à partir du 25 août 2017 sur Netflix[22].
+En 2015, après la diffusion du drama, un préquel de 3 courts épisodes « Death note: New Génération » sort a l’occasion d'un nouveau film, ce quatrième film intitulé Death Note: Light Up the New World. Réalisé par Shinsuke Sato, celui-ci est sorti le 29 octobre 2016. Il s'agit d'une « suite interdite » des deux films de 2006 réalisés par Shūsuke Kaneko, puisqu'elle ne réfère a aucune adaptation du manga.
+Une adaptation américaine, Death Note, par la Warner Bros., est longtemps restée au point mort en raison de désaccords sur le scénario. Shane Black a assuré qu'il réaliserait le film après Iron Man 3, sorti en 2013, mais en juillet 2014, Gus Van Sant est également pressenti. Finalement, Adam Wingard est choisi pour réaliser l'adaptation, qui est diffusée à partir du 25 août 2017 sur Netflix.
 En France, les adaptations cinématographiques suivantes sont sorties directement en DVD :
-Death Note est sorti le 5 janvier 2008[23] ;
-Death Note 2: The Last Name est sorti le 2 juillet 2008[24] ;
-L: Change the World est sorti le 18 novembre 2009[25] ;
-Un coffret regroupant les deux premiers films est sorti le 19 novembre 2008[26] et un coffret regroupant la trilogie est sorti le 29 septembre 2010[27].
-Séries TV
-L'adaptation en série live est annoncée en avril 2015[28]. Le cast de cette série est différent des précédents films live[29] : Light est joué par Masataka Kubota et L par Kento Yamazaki[30]. La série de 11 épisodes est diffusée à partir du 9 juillet 2015 sur Nippon TV au Japon et en simulcast sur Crunchyroll dans les pays francophones[31].
-En juillet 2022, il a été annoncé que les Duffer Brothers produisaient une nouvelle adaptation de série en direct pour Netflix[32].
-Comédie musicale
-Une adaptation scénique est annoncée en décembre 2014[33].  La musique est signée Frank Wildhorn, les paroles sont écrites par Jack Murphy et le livret est rédigé par Ivan Menchell. La comédie musicale est jouée du 6 au 29 avril 2015 à Tokyo puis en mai à Osaka et Nagoya. Light Yagami est joué par Kenji Urai et Hayato Kakizawa, tandis que L est campé par Teppei Koike[34]. Elle est ensuite jouée du 11 juin au 11 août 2015 en Corée su Sud, avec un cast différent : Hong Kwang-ho pour Light et Kim Junsu pour L[35]. Différentes productions se sont montées dans le monde, notamment en Russie et au Brésil[36].
-Distributions asiatiques
-Distributions internationales
-Livre audio
-Un livre audio développé par Bastei Lübbe (en) sort en version française sur Audible le 12 décembre 2019. D'une durée de 10h46, il se compose de 12 chapitres et est lu par les mêmes doubleurs que ceux de la série d'animation, dont Alexis Tomassian (Light Yagami), Guillaume Lebon (L), Emmanuel Karsen (Ryûk), Philippe Dumond (Soishiro Yagami), Charlyne Pestel (Misa Amane) et Charles Pestel (Tôta Matsuda)[43],[44].
-Mangas one-shots
-Trois one shots autour de l'univers de Death Note ont été publiés, par le même scénariste et le même dessinateur.
-Le premier est le pilote de la série composé de 55 pages. Il présente Taro Kagami, 13 ans, qui reçoit le Death Note du shinigami Ryuk. Il l'utilise comme un simple journal intime, avant de réaliser son pouvoir[45].
-Le second a été publié en 2008 à l'occasion de la sortie du film L : Change the World et est composé de 44 pages. Il se déroule trois ans après la fin du manga, où un nouveau Kira apparaît, mais ne ciblant que des personnes à l'agonie ayant le désir de mourir[45].
-Le dernier a été publié dans le magazine Jump Square en Février 2020 et est composé de 87 pages. Il se déroule en 2019, Ryûk retourne dans le monde des humains pour offrir le Death Note à un nouveau détenteur se nommant Tanaka Minoru. Mais ce dernier, au lieu d'utiliser le carnet, décide de le vendre en le mettant aux enchères[46].
-La première histoire est publiée en France dans le tome 13 de la série publiée par Kana. Elle est de nouveau publiée avec les deux autres histoires dans un recueil Death Note: Short Stories sorti le 28 mai 2021, toujours par les éditions Kana. Le tome est également composé de plusieurs mini-histoires à tendance humoristique, d'une histoire sur le quotidien de L du point de vue de Watari et une histoire racontant comment L est devenu détective[45],[47].
-Parodie
-Une parodie de Death Note créée par Amano Kaito et Sakano Hiro est disponible chez Gekko sous le nom de Death Joke[48].
-Romans
-Une adaptation romancée de Death Note, intitulée Death Note Another Note: The Los Angeles BB Murder Cases a été écrite par Nisio Isin, et a été éditée le 1er août 2006 au Japon par l'éditeur Shūeisha[49] et le 24 septembre 2010 en France par Kana[50]. Une adaptation du film L: Change the World écrit par 'M' a également vu le jour le 25 décembre 2007 au Japon[51] et le 24 septembre 2010 en France[52].
-Jeux vidéo
-Trois adaptations en jeu vidéo sont parues sur Nintendo DS : Death Note: Kira Game le 15 février 2007[53], Death Note: L o Tsugu Mono le 12 juillet 2007[54] et L: The Prologue to Death Note - Rasen no Wana le 7 février 2008[55] au Japon. Par ailleurs, on retrouve la présence de Light Yagami, L/Ryuzaki, Ryuk, Misa Amane, Near et Mello dans les jeux Jump Super Stars et Jump Ultimate Stars[56].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Death_Note</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Death Note est sorti le 5 janvier 2008 ;
+Death Note 2: The Last Name est sorti le 2 juillet 2008 ;
+L: Change the World est sorti le 18 novembre 2009 ;
+Un coffret regroupant les deux premiers films est sorti le 19 novembre 2008 et un coffret regroupant la trilogie est sorti le 29 septembre 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Live-action</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Séries TV</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adaptation en série live est annoncée en avril 2015. Le cast de cette série est différent des précédents films live : Light est joué par Masataka Kubota et L par Kento Yamazaki. La série de 11 épisodes est diffusée à partir du 9 juillet 2015 sur Nippon TV au Japon et en simulcast sur Crunchyroll dans les pays francophones.
+En juillet 2022, il a été annoncé que les Duffer Brothers produisaient une nouvelle adaptation de série en direct pour Netflix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Comédie musicale</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation scénique est annoncée en décembre 2014.  La musique est signée Frank Wildhorn, les paroles sont écrites par Jack Murphy et le livret est rédigé par Ivan Menchell. La comédie musicale est jouée du 6 au 29 avril 2015 à Tokyo puis en mai à Osaka et Nagoya. Light Yagami est joué par Kenji Urai et Hayato Kakizawa, tandis que L est campé par Teppei Koike. Elle est ensuite jouée du 11 juin au 11 août 2015 en Corée su Sud, avec un cast différent : Hong Kwang-ho pour Light et Kim Junsu pour L. Différentes productions se sont montées dans le monde, notamment en Russie et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Livre audio</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un livre audio développé par Bastei Lübbe (en) sort en version française sur Audible le 12 décembre 2019. D'une durée de 10h46, il se compose de 12 chapitres et est lu par les mêmes doubleurs que ceux de la série d'animation, dont Alexis Tomassian (Light Yagami), Guillaume Lebon (L), Emmanuel Karsen (Ryûk), Philippe Dumond (Soishiro Yagami), Charlyne Pestel (Misa Amane) et Charles Pestel (Tôta Matsuda),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mangas one-shots</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois one shots autour de l'univers de Death Note ont été publiés, par le même scénariste et le même dessinateur.
+Le premier est le pilote de la série composé de 55 pages. Il présente Taro Kagami, 13 ans, qui reçoit le Death Note du shinigami Ryuk. Il l'utilise comme un simple journal intime, avant de réaliser son pouvoir.
+Le second a été publié en 2008 à l'occasion de la sortie du film L : Change the World et est composé de 44 pages. Il se déroule trois ans après la fin du manga, où un nouveau Kira apparaît, mais ne ciblant que des personnes à l'agonie ayant le désir de mourir.
+Le dernier a été publié dans le magazine Jump Square en Février 2020 et est composé de 87 pages. Il se déroule en 2019, Ryûk retourne dans le monde des humains pour offrir le Death Note à un nouveau détenteur se nommant Tanaka Minoru. Mais ce dernier, au lieu d'utiliser le carnet, décide de le vendre en le mettant aux enchères.
+La première histoire est publiée en France dans le tome 13 de la série publiée par Kana. Elle est de nouveau publiée avec les deux autres histoires dans un recueil Death Note: Short Stories sorti le 28 mai 2021, toujours par les éditions Kana. Le tome est également composé de plusieurs mini-histoires à tendance humoristique, d'une histoire sur le quotidien de L du point de vue de Watari et une histoire racontant comment L est devenu détective,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Parodie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une parodie de Death Note créée par Amano Kaito et Sakano Hiro est disponible chez Gekko sous le nom de Death Joke.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation romancée de Death Note, intitulée Death Note Another Note: The Los Angeles BB Murder Cases a été écrite par Nisio Isin, et a été éditée le 1er août 2006 au Japon par l'éditeur Shūeisha et le 24 septembre 2010 en France par Kana. Une adaptation du film L: Change the World écrit par 'M' a également vu le jour le 25 décembre 2007 au Japon et le 24 septembre 2010 en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois adaptations en jeu vidéo sont parues sur Nintendo DS : Death Note: Kira Game le 15 février 2007, Death Note: L o Tsugu Mono le 12 juillet 2007 et L: The Prologue to Death Note - Rasen no Wana le 7 février 2008 au Japon. Par ailleurs, on retrouve la présence de Light Yagami, L/Ryuzaki, Ryuk, Misa Amane, Near et Mello dans les jeux Jump Super Stars et Jump Ultimate Stars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix et récompenses
-Death Note s'est classée n°2 sur Kono Manga ga Sugoi! de Takarajimasha! liste des meilleurs mangas de 2006 et 2007 pour les lecteurs masculins[57]. La série a été nommé pour le 38e Prix Seiun dans la catégorie manga lors de la 46e convention de science-fiction au Japon en 2007[58]. Le manga a reçu le Grand Prix du Meilleur Manga et du Meilleur Scénario aux Japan Expo Awards 2007[59]. La série a remporté le Eagle Award 2008 du manga préféré, voté par les fans britanniques[60]. Selon une enquête menée en 2007 par le Ministère de la Culture du Japon, Death Note occupe la 10e place parmi les meilleurs mangas de tous les temps[61]. Il a également reçu plusieurs nominations telles que le meilleur manga aux American Anime Awards 2006[62], le Prix Culturel Osamu Tezuka 2007[63], une sélection officielle au Festival international de la bande dessinée d'Angoulême 2008[64], et Obata a été nommé pour Meilleur crayonneur / encreur aux Eisner Awards 2008[65]. Death Note a été inclus sur la liste des 10 meilleurs romans graphiques pour adolescents de l'American Library Association en 2007[66]. L'édition française du manga s'est vu remettre en 2008 le prix Bob-Morane pour la catégorie « Bande dessinée traduite »[67]. Death Note remporte le prix du Meilleur manga traduit à la 3e édition du prix brésilien Geeks d'Ouro en 2021[68].
-Réception commerciale
-En juin 2006, le manga Death Note s'est vendu à plus de 20 millions d'exemplaires dans le monde[69], dont plus d'un million en France[6]. Au 31 décembre 2008, le manga s'est écoulé à 26,5 millions d'exemplaires dans le monde[70]. En avril 2015, Death Note avait plus de 30 millions d'exemplaires en circulation[71].
-Réception critique
-L'écrivain d'Anime News Network, Zac Bertschy, a qualifié Death Note de « récit à suspense étonnamment captivant et original qui soulève une poignée de questions intéressantes sur la moralité ». Il a noté la différence entre la série et les autres mangas, en raison des meurtres commis par le personnage principal ainsi que de la façon dont il cache son identité de Kira. Bien que Bertschy ait mentionné que certains lecteurs de mangas seraient surpris par les thèmes sombres de Death Note, il a fait l'éloge de la série pour son « grand art, sa belle histoire et ses personnages convaincants"[72] ».
-D'après Patrick Gaumer[73], spécialiste de la bande dessinée : « Tant par sa narration que par son graphisme, la série s'impose comme un des modèles du genre » et devient « un véritable phénomène de société ».
-En 2006, les fans japonais ont souligné les similitudes entre Death Note et le manga one-shot de 1973 The Miraculous Notebook (不思議な手帖) de Shigeru Mizuki. Le site Comipress a rapporté que la seule différence entre l'histoire du one-shot et le manga Death Note est qu'il n'y a pas de Shinigamis[74]. Bien que ce fait soit une coïncidence, Ohba a déclaré qu'il n'avait aucune inspiration particulière pour son histoire[75].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Death_Note</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Death Note s'est classée n°2 sur Kono Manga ga Sugoi! de Takarajimasha! liste des meilleurs mangas de 2006 et 2007 pour les lecteurs masculins. La série a été nommé pour le 38e Prix Seiun dans la catégorie manga lors de la 46e convention de science-fiction au Japon en 2007. Le manga a reçu le Grand Prix du Meilleur Manga et du Meilleur Scénario aux Japan Expo Awards 2007. La série a remporté le Eagle Award 2008 du manga préféré, voté par les fans britanniques. Selon une enquête menée en 2007 par le Ministère de la Culture du Japon, Death Note occupe la 10e place parmi les meilleurs mangas de tous les temps. Il a également reçu plusieurs nominations telles que le meilleur manga aux American Anime Awards 2006, le Prix Culturel Osamu Tezuka 2007, une sélection officielle au Festival international de la bande dessinée d'Angoulême 2008, et Obata a été nommé pour Meilleur crayonneur / encreur aux Eisner Awards 2008. Death Note a été inclus sur la liste des 10 meilleurs romans graphiques pour adolescents de l'American Library Association en 2007. L'édition française du manga s'est vu remettre en 2008 le prix Bob-Morane pour la catégorie « Bande dessinée traduite ». Death Note remporte le prix du Meilleur manga traduit à la 3e édition du prix brésilien Geeks d'Ouro en 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Réception commerciale</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2006, le manga Death Note s'est vendu à plus de 20 millions d'exemplaires dans le monde, dont plus d'un million en France. Au 31 décembre 2008, le manga s'est écoulé à 26,5 millions d'exemplaires dans le monde. En avril 2015, Death Note avait plus de 30 millions d'exemplaires en circulation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écrivain d'Anime News Network, Zac Bertschy, a qualifié Death Note de « récit à suspense étonnamment captivant et original qui soulève une poignée de questions intéressantes sur la moralité ». Il a noté la différence entre la série et les autres mangas, en raison des meurtres commis par le personnage principal ainsi que de la façon dont il cache son identité de Kira. Bien que Bertschy ait mentionné que certains lecteurs de mangas seraient surpris par les thèmes sombres de Death Note, il a fait l'éloge de la série pour son « grand art, sa belle histoire et ses personnages convaincants" ».
+D'après Patrick Gaumer, spécialiste de la bande dessinée : « Tant par sa narration que par son graphisme, la série s'impose comme un des modèles du genre » et devient « un véritable phénomène de société ».
+En 2006, les fans japonais ont souligné les similitudes entre Death Note et le manga one-shot de 1973 The Miraculous Notebook (不思議な手帖) de Shigeru Mizuki. Le site Comipress a rapporté que la seule différence entre l'histoire du one-shot et le manga Death Note est qu'il n'y a pas de Shinigamis. Bien que ce fait soit une coïncidence, Ohba a déclaré qu'il n'avait aucune inspiration particulière pour son histoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interdiction
-Au début de 2005, les autorités scolaires de Shenyang, la capitale du Liaoning (république populaire de Chine), ont interdit Death Note[76]. La cause immédiate était que les étudiants avaient modifié des cahiers pour ressembler à Death Note, puis écrit les noms de connaissances, d'ennemis et d'enseignants dans les livres[77]. L'interdiction visait à protéger la "santé physique et mentale" des élèves contre les contenus d'horreur qui "induisent en erreur des enfants innocents et déforment leur esprit"[78]. Jonathan Clements a suggéré que les autorités chinoises ont agi en partie contre la "superstition", mais aussi contre les éditeurs illégaux et pirates de Death Note[79]. L'interdiction a été étendue à d'autres villes chinoises, dont Pékin, Shanghai et Lanzhou dans la province du Gansu[80]. Des versions en langue chinoise légalement publiées de Death Note sont publiées à Hong Kong[81]. Le 12 juin 2015, le ministère chinois de la Culture a répertorié Death Note parmi les 38 titres d'anime et de manga interdits en Chine[82].
-En 2007, le bureau de l'éducation du comté de Pingtung, à Taïwan, a demandé aux enseignants de prêter attention à toute influence négative sur les élèves du primaire lisant le manga[83].
-Les écoles publiques d'Albuquerque au Nouveau-Mexique, aux États-Unis, ont tenu une audience en mai 2010 pour interdire le manga Death Note des écoles de leur district ; il a été rejeté à l'unanimité[84].
-Après que des volumes de Death Note ont été trouvés lors du suicide en février 2013 d'une jeune fille de 15 ans à Ekaterinbourg, en Russie, un groupe local de parents a commencé à faire campagne pour réglementer tous les médias basés sur la série, affirmant que cela avait un effet négatif sur l'esprit des enfants[85]. En mars 2014, les enquêteurs ont conclu que le manga n'avait pas poussé la jeune fille à se suicider[86]. En février 2021, il a été signalé que la série, ainsi que Last Hero Inuyashiki et Tokyo Ghoul, avaient été interdites de distribution sur deux sites Web non spécifiés en Russie[87].
-Imitation criminelle
-Fin septembre 2007, la police trouve plusieurs morceaux de corps d'un homme (notamment le bas de l'abdomen) dans la commune de Forest (Bruxelles, Belgique) dans le parc Duden. Les morceaux étaient accrochés de deux papiers portant tous deux la mention écrite : « WATASHI WA KIRA DESU »[88]. La police pense d'abord à une blague macabre d'un étudiant en médecine mais n'exclut pas le meurtre car le corps reste non identifié. En février 2009, la police découvre qu'il s'agissait bien d'un meurtre : la victime se nommait Sidi Larbi Ezzoubairi [89]. Les meurtriers présumés sont arrêtés en septembre 2010. Ils expliquent que la victime, dont ils ignoraient le nom, résidait avec eux lorsqu'une dispute a éclaté. Les auteurs lui ont demandé de quitter les lieux, mais celui-ci refusa. De nombreux coups ont alors été portés, entraînant la mort, à la suite de quoi eut lieu le dépeçage. La victime était alors âgée de 37 ans[90],[91],[92],[93],[94].
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Interdiction</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de 2005, les autorités scolaires de Shenyang, la capitale du Liaoning (république populaire de Chine), ont interdit Death Note. La cause immédiate était que les étudiants avaient modifié des cahiers pour ressembler à Death Note, puis écrit les noms de connaissances, d'ennemis et d'enseignants dans les livres. L'interdiction visait à protéger la "santé physique et mentale" des élèves contre les contenus d'horreur qui "induisent en erreur des enfants innocents et déforment leur esprit". Jonathan Clements a suggéré que les autorités chinoises ont agi en partie contre la "superstition", mais aussi contre les éditeurs illégaux et pirates de Death Note. L'interdiction a été étendue à d'autres villes chinoises, dont Pékin, Shanghai et Lanzhou dans la province du Gansu. Des versions en langue chinoise légalement publiées de Death Note sont publiées à Hong Kong. Le 12 juin 2015, le ministère chinois de la Culture a répertorié Death Note parmi les 38 titres d'anime et de manga interdits en Chine.
+En 2007, le bureau de l'éducation du comté de Pingtung, à Taïwan, a demandé aux enseignants de prêter attention à toute influence négative sur les élèves du primaire lisant le manga.
+Les écoles publiques d'Albuquerque au Nouveau-Mexique, aux États-Unis, ont tenu une audience en mai 2010 pour interdire le manga Death Note des écoles de leur district ; il a été rejeté à l'unanimité.
+Après que des volumes de Death Note ont été trouvés lors du suicide en février 2013 d'une jeune fille de 15 ans à Ekaterinbourg, en Russie, un groupe local de parents a commencé à faire campagne pour réglementer tous les médias basés sur la série, affirmant que cela avait un effet négatif sur l'esprit des enfants. En mars 2014, les enquêteurs ont conclu que le manga n'avait pas poussé la jeune fille à se suicider. En février 2021, il a été signalé que la série, ainsi que Last Hero Inuyashiki et Tokyo Ghoul, avaient été interdites de distribution sur deux sites Web non spécifiés en Russie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Death_Note</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Death_Note</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Imitation criminelle</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin septembre 2007, la police trouve plusieurs morceaux de corps d'un homme (notamment le bas de l'abdomen) dans la commune de Forest (Bruxelles, Belgique) dans le parc Duden. Les morceaux étaient accrochés de deux papiers portant tous deux la mention écrite : « WATASHI WA KIRA DESU ». La police pense d'abord à une blague macabre d'un étudiant en médecine mais n'exclut pas le meurtre car le corps reste non identifié. En février 2009, la police découvre qu'il s'agissait bien d'un meurtre : la victime se nommait Sidi Larbi Ezzoubairi . Les meurtriers présumés sont arrêtés en septembre 2010. Ils expliquent que la victime, dont ils ignoraient le nom, résidait avec eux lorsqu'une dispute a éclaté. Les auteurs lui ont demandé de quitter les lieux, mais celui-ci refusa. De nombreux coups ont alors été portés, entraînant la mort, à la suite de quoi eut lieu le dépeçage. La victime était alors âgée de 37 ans.
 </t>
         </is>
       </c>
